--- a/Tabla comparativa.xlsx
+++ b/Tabla comparativa.xlsx
@@ -5,20 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Proyecto4-riesgo-de-liquidez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fer10\Documents\Administración integral de riesgos\Proyecto4-riesgo-de-liquidez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801E51E6-58F7-4888-B877-E5C53C7B6E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25A50C3-280A-4824-94F8-35E504C13AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -79,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +105,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -125,6 +142,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -409,20 +429,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -451,7 +471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -460,36 +480,51 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="4">
+        <v>0.97540000000000004</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="str">
+        <f>IF(MAX(C2:F2)=C2,"Múltiple",IF(MAX(C2:F2)=D2,"Lasso",IF(MAX(C2:F2)=E2,"Ridge","Elastic Net")))</f>
+        <v>Ridge</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="4">
+        <v>0.84619999999999995</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="str">
+        <f t="shared" ref="H3:H16" si="0">IF(MAX(C3:F3)=C3,"Múltiple",IF(MAX(C3:F3)=D3,"Lasso",IF(MAX(C3:F3)=E3,"Ridge","Elastic Net")))</f>
+        <v>Ridge</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="4">
+        <v>0.96179999999999999</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ridge</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -498,81 +533,163 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="4">
+        <v>0.94489999999999996</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ridge</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="4">
+        <v>0.68489999999999995</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ridge</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ridge</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>0.80820000000000003</v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ridge</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="4">
+        <v>0.6845</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ridge</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>0.71060000000000001</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ridge</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>0.8548</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ridge</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="4">
+        <v>0.77380000000000004</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ridge</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <v>0.82820000000000005</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ridge</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="H14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ridge</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="4">
+        <v>0.66059999999999997</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ridge</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.8679</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ridge</v>
       </c>
     </row>
   </sheetData>

--- a/Tabla comparativa.xlsx
+++ b/Tabla comparativa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fer10\Documents\Administración integral de riesgos\Proyecto4-riesgo-de-liquidez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Proyecto4-riesgo-de-liquidez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25A50C3-280A-4824-94F8-35E504C13AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8264A8C8-2708-4B93-A2F5-FDA5929B9F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +111,12 @@
       <color theme="1"/>
       <name val="Aptos"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -141,11 +147,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,8 +450,8 @@
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -465,231 +474,272 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4">
+      <c r="D2" s="5">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="E2" s="3">
         <v>0.97540000000000004</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2" t="str">
+      <c r="G2" s="2" t="str">
         <f>IF(MAX(C2:F2)=C2,"Múltiple",IF(MAX(C2:F2)=D2,"Lasso",IF(MAX(C2:F2)=E2,"Ridge","Elastic Net")))</f>
-        <v>Ridge</v>
-      </c>
+        <v>Lasso</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4">
+      <c r="D3" s="5">
+        <v>0.95509999999999995</v>
+      </c>
+      <c r="E3" s="3">
         <v>0.84619999999999995</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="str">
-        <f t="shared" ref="H3:H16" si="0">IF(MAX(C3:F3)=C3,"Múltiple",IF(MAX(C3:F3)=D3,"Lasso",IF(MAX(C3:F3)=E3,"Ridge","Elastic Net")))</f>
-        <v>Ridge</v>
-      </c>
+      <c r="G3" s="2" t="str">
+        <f t="shared" ref="G3:G16" si="0">IF(MAX(C3:F3)=C3,"Múltiple",IF(MAX(C3:F3)=D3,"Lasso",IF(MAX(C3:F3)=E3,"Ridge","Elastic Net")))</f>
+        <v>Lasso</v>
+      </c>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4">
+      <c r="D4" s="5">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="E4" s="3">
         <v>0.96179999999999999</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Ridge</v>
-      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Lasso</v>
+      </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4">
+      <c r="D5" s="5">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="E5" s="3">
         <v>0.94489999999999996</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Ridge</v>
-      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Lasso</v>
+      </c>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4">
+      <c r="D6" s="5">
+        <v>0.87350000000000005</v>
+      </c>
+      <c r="E6" s="3">
         <v>0.68489999999999995</v>
       </c>
-      <c r="H6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Ridge</v>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Lasso</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="4">
+      <c r="D7" s="5">
+        <v>0.96060000000000001</v>
+      </c>
+      <c r="E7" s="3">
         <v>0.94099999999999995</v>
       </c>
-      <c r="H7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Ridge</v>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Lasso</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4">
+      <c r="D8" s="5">
+        <v>0.82640000000000002</v>
+      </c>
+      <c r="E8" s="3">
         <v>0.80820000000000003</v>
       </c>
-      <c r="H8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Ridge</v>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Lasso</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4">
+      <c r="D9" s="5">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="E9" s="3">
         <v>0.6845</v>
       </c>
-      <c r="H9" s="2" t="str">
+      <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Ridge</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="4">
+      <c r="D10" s="5">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="E10" s="3">
         <v>0.71060000000000001</v>
       </c>
-      <c r="H10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Ridge</v>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Lasso</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="4">
+      <c r="D11" s="5">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="E11" s="3">
         <v>0.8548</v>
       </c>
-      <c r="H11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Ridge</v>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Lasso</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="4">
+      <c r="D12" s="5">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="E12" s="3">
         <v>0.77380000000000004</v>
       </c>
-      <c r="H12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Ridge</v>
+      <c r="G12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Lasso</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="4">
+      <c r="D13" s="5">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="E13" s="3">
         <v>0.82820000000000005</v>
       </c>
-      <c r="H13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Ridge</v>
+      <c r="G13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Lasso</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="4">
+      <c r="D14" s="5">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E14" s="3">
         <v>0.92200000000000004</v>
       </c>
-      <c r="H14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Ridge</v>
+      <c r="G14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Lasso</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="4">
+      <c r="D15" s="5">
+        <v>0.95489999999999997</v>
+      </c>
+      <c r="E15" s="3">
         <v>0.66059999999999997</v>
       </c>
-      <c r="H15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Ridge</v>
+      <c r="G15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Lasso</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="4">
+      <c r="D16" s="5">
+        <v>0.94510000000000005</v>
+      </c>
+      <c r="E16" s="3">
         <v>0.8679</v>
       </c>
-      <c r="H16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Ridge</v>
+      <c r="G16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Lasso</v>
       </c>
     </row>
   </sheetData>

--- a/Tabla comparativa.xlsx
+++ b/Tabla comparativa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Proyecto4-riesgo-de-liquidez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domingo\Downloads\Proyecto4-riesgo-de-liquidez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8264A8C8-2708-4B93-A2F5-FDA5929B9F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A662CDF9-D7F8-475C-97B0-4BD10F40D45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +118,11 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -150,11 +155,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,7 +447,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +457,7 @@
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="25.85546875" customWidth="1"/>
   </cols>
@@ -481,20 +489,22 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>0.98670000000000002</v>
       </c>
       <c r="E2" s="3">
         <v>0.97540000000000004</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="6">
+        <v>0.98660000000000003</v>
+      </c>
       <c r="G2" s="2" t="str">
         <f>IF(MAX(C2:F2)=C2,"Múltiple",IF(MAX(C2:F2)=D2,"Lasso",IF(MAX(C2:F2)=E2,"Ridge","Elastic Net")))</f>
         <v>Lasso</v>
@@ -502,58 +512,64 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.95509999999999995</v>
       </c>
       <c r="E3" s="3">
         <v>0.84619999999999995</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="6">
+        <v>0.95840000000000003</v>
+      </c>
       <c r="G3" s="2" t="str">
         <f t="shared" ref="G3:G16" si="0">IF(MAX(C3:F3)=C3,"Múltiple",IF(MAX(C3:F3)=D3,"Lasso",IF(MAX(C3:F3)=E3,"Ridge","Elastic Net")))</f>
-        <v>Lasso</v>
+        <v>Elastic Net</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.98270000000000002</v>
       </c>
       <c r="E4" s="3">
         <v>0.96179999999999999</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="6">
+        <v>0.98270000000000002</v>
+      </c>
       <c r="G4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(MAX(C4:F4)=C4,"Múltiple",IF(MAX(C4:F4)=D4,"Lasso",IF(MAX(C4:F4)=E4,"Ridge","Elastic Net")))</f>
         <v>Lasso</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.96519999999999995</v>
       </c>
       <c r="E5" s="3">
         <v>0.94489999999999996</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="6">
+        <v>0.96509999999999996</v>
+      </c>
       <c r="G5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Lasso</v>
@@ -561,181 +577,214 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.87350000000000005</v>
       </c>
       <c r="E6" s="3">
         <v>0.68489999999999995</v>
       </c>
+      <c r="F6" s="6">
+        <v>0.88180000000000003</v>
+      </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Lasso</v>
+        <v>Elastic Net</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.96060000000000001</v>
       </c>
       <c r="E7" s="3">
         <v>0.94099999999999995</v>
       </c>
+      <c r="F7" s="6">
+        <v>0.96130000000000004</v>
+      </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Lasso</v>
+        <v>Elastic Net</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.82640000000000002</v>
       </c>
       <c r="E8" s="3">
         <v>0.80820000000000003</v>
       </c>
+      <c r="F8" s="6">
+        <v>0.82709999999999995</v>
+      </c>
       <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Lasso</v>
+        <v>Elastic Net</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.66120000000000001</v>
       </c>
       <c r="E9" s="3">
         <v>0.6845</v>
       </c>
+      <c r="F9" s="6">
+        <v>0.70340000000000003</v>
+      </c>
       <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Ridge</v>
+        <v>Elastic Net</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>0.72219999999999995</v>
       </c>
       <c r="E10" s="3">
         <v>0.71060000000000001</v>
       </c>
+      <c r="F10" s="6">
+        <v>0.71660000000000001</v>
+      </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Lasso</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>0.86960000000000004</v>
       </c>
       <c r="E11" s="3">
         <v>0.8548</v>
       </c>
+      <c r="F11" s="6">
+        <v>0.86899999999999999</v>
+      </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Lasso</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0.87670000000000003</v>
       </c>
       <c r="E12" s="3">
         <v>0.77380000000000004</v>
       </c>
+      <c r="F12" s="6">
+        <v>0.87239999999999995</v>
+      </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Lasso</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>0.90839999999999999</v>
       </c>
       <c r="E13" s="3">
         <v>0.82820000000000005</v>
       </c>
+      <c r="F13" s="6">
+        <v>0.88870000000000005</v>
+      </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Lasso</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>0.92500000000000004</v>
       </c>
       <c r="E14" s="3">
         <v>0.92200000000000004</v>
       </c>
+      <c r="F14" s="6">
+        <v>0.92390000000000005</v>
+      </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Lasso</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>0.95489999999999997</v>
       </c>
       <c r="E15" s="3">
         <v>0.66059999999999997</v>
       </c>
+      <c r="F15" s="6">
+        <v>0.95660000000000001</v>
+      </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Lasso</v>
+        <v>Elastic Net</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>0.94510000000000005</v>
       </c>
       <c r="E16" s="3">
         <v>0.8679</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.94450000000000001</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="0"/>

--- a/Tabla comparativa.xlsx
+++ b/Tabla comparativa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domingo\Downloads\Proyecto4-riesgo-de-liquidez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A662CDF9-D7F8-475C-97B0-4BD10F40D45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EC85DD-94CD-46E3-B87B-9064F655B031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,6 +163,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,14 +453,14 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
@@ -489,13 +495,15 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="5">
+        <v>0.98680000000000001</v>
+      </c>
       <c r="D2" s="4">
         <v>0.98670000000000002</v>
       </c>
@@ -507,16 +515,18 @@
       </c>
       <c r="G2" s="2" t="str">
         <f>IF(MAX(C2:F2)=C2,"Múltiple",IF(MAX(C2:F2)=D2,"Lasso",IF(MAX(C2:F2)=E2,"Ridge","Elastic Net")))</f>
-        <v>Lasso</v>
+        <v>Múltiple</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="5">
+        <v>0.95899999999999996</v>
+      </c>
       <c r="D3" s="4">
         <v>0.95509999999999995</v>
       </c>
@@ -528,16 +538,18 @@
       </c>
       <c r="G3" s="2" t="str">
         <f t="shared" ref="G3:G16" si="0">IF(MAX(C3:F3)=C3,"Múltiple",IF(MAX(C3:F3)=D3,"Lasso",IF(MAX(C3:F3)=E3,"Ridge","Elastic Net")))</f>
-        <v>Elastic Net</v>
+        <v>Múltiple</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="5">
+        <v>0.9829</v>
+      </c>
       <c r="D4" s="4">
         <v>0.98270000000000002</v>
       </c>
@@ -549,18 +561,20 @@
       </c>
       <c r="G4" s="2" t="str">
         <f>IF(MAX(C4:F4)=C4,"Múltiple",IF(MAX(C4:F4)=D4,"Lasso",IF(MAX(C4:F4)=E4,"Ridge","Elastic Net")))</f>
-        <v>Lasso</v>
+        <v>Múltiple</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="5">
+        <v>0.96399999999999997</v>
+      </c>
       <c r="D5" s="4">
         <v>0.96519999999999995</v>
       </c>
@@ -577,10 +591,13 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="8">
+        <v>0.87709999999999999</v>
+      </c>
       <c r="D6" s="4">
         <v>0.87350000000000005</v>
       </c>
@@ -596,10 +613,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C7" s="8">
+        <v>0.95950000000000002</v>
+      </c>
       <c r="D7" s="4">
         <v>0.96060000000000001</v>
       </c>
@@ -615,12 +635,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C8" s="8">
+        <v>0.82440000000000002</v>
+      </c>
       <c r="D8" s="4">
         <v>0.82640000000000002</v>
       </c>
@@ -636,10 +659,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C9" s="8">
+        <v>0.7</v>
+      </c>
       <c r="D9" s="4">
         <v>0.66120000000000001</v>
       </c>
@@ -655,10 +681,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C10" s="8">
+        <v>0.72219999999999995</v>
+      </c>
       <c r="D10" s="4">
         <v>0.72219999999999995</v>
       </c>
@@ -670,16 +699,19 @@
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Lasso</v>
+        <v>Múltiple</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C11" s="8">
+        <v>0.87990000000000002</v>
+      </c>
       <c r="D11" s="4">
         <v>0.86960000000000004</v>
       </c>
@@ -691,14 +723,17 @@
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Lasso</v>
+        <v>Múltiple</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C12" s="8">
+        <v>0.87419999999999998</v>
+      </c>
       <c r="D12" s="4">
         <v>0.87670000000000003</v>
       </c>
@@ -714,10 +749,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C13" s="8">
+        <v>0.90100000000000002</v>
+      </c>
       <c r="D13" s="4">
         <v>0.90839999999999999</v>
       </c>
@@ -733,12 +771,15 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C14" s="8">
+        <v>0.93200000000000005</v>
+      </c>
       <c r="D14" s="4">
         <v>0.92500000000000004</v>
       </c>
@@ -750,14 +791,17 @@
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Lasso</v>
+        <v>Múltiple</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C15" s="8">
+        <v>0.95499999999999996</v>
+      </c>
       <c r="D15" s="4">
         <v>0.95489999999999997</v>
       </c>
@@ -773,9 +817,12 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.94099999999999995</v>
       </c>
       <c r="D16" s="4">
         <v>0.94510000000000005</v>
